--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-94467.71473317275</v>
+        <v>-97166.76682708034</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12734585.87180955</v>
+        <v>12734585.87180954</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663199</v>
+        <v>173.9484321805921</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X2" t="n">
-        <v>48.47711506061704</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>72.67575543608493</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>28.5715882696838</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>187.5255871663199</v>
+        <v>52.62893363309646</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y4" t="n">
-        <v>78.22677437477063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.1217610028605</v>
+        <v>12.12176100286048</v>
       </c>
       <c r="H5" t="n">
-        <v>306.8976264094352</v>
+        <v>67.83787354282292</v>
       </c>
       <c r="I5" t="n">
-        <v>87.84129258094048</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>136.5335673127884</v>
       </c>
       <c r="T5" t="n">
         <v>209.1711248816494</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>148.3354028632326</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -990,10 +990,10 @@
         <v>135.6415446830818</v>
       </c>
       <c r="H6" t="n">
-        <v>95.79797317841046</v>
+        <v>95.79797317841044</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>30.79801895224373</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>193.3045852332498</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8294102072821</v>
+        <v>16.79302694946854</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,10 +1038,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>60.50881768689015</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5641028040799</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>112.5404054555728</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>113.1358328502782</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>199.15003117566</v>
+        <v>199.1500311756599</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>115.9821190841758</v>
+        <v>85.64357077637227</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>180.2158708563817</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>81.21470415642943</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>45.68806248863822</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>49.57372789032946</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>240.104445829891</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184546</v>
+        <v>24.1466220418456</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615206</v>
+        <v>98.88510599615213</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544491</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>299.2199360833314</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530785</v>
+        <v>10.48847705530792</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>105.508928064093</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905241</v>
       </c>
       <c r="S13" t="n">
-        <v>52.83177046184711</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699805</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>198.9107847550984</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520956</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833745</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>109.8058856274559</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833745</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>210.5950626772371</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>38.61213096654777</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936191</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>142.1343012721633</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699809</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>35.41770597126567</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428188</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>115.7063133373723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>20.88994825141589</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,13 +3478,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>281.6778446725257</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>134.385206357344</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>122.4116053749662</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699809</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>176.18113233758</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>115.7063133373728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>540.7559564928854</v>
+        <v>210.8831693494284</v>
       </c>
       <c r="C2" t="n">
-        <v>351.3361714764006</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="D2" t="n">
-        <v>161.9163864599159</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="E2" t="n">
-        <v>161.9163864599159</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107125</v>
+        <v>28.23218154912181</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985581</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823975</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823975</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="U2" t="n">
-        <v>589.7227393823975</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="V2" t="n">
-        <v>589.7227393823975</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="W2" t="n">
-        <v>589.7227393823975</v>
+        <v>400.3029543659133</v>
       </c>
       <c r="X2" t="n">
-        <v>540.7559564928854</v>
+        <v>400.3029543659133</v>
       </c>
       <c r="Y2" t="n">
-        <v>540.7559564928854</v>
+        <v>400.3029543659133</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>409.399488203391</v>
+        <v>192.7966468059547</v>
       </c>
       <c r="C3" t="n">
-        <v>234.946458922264</v>
+        <v>192.7966468059547</v>
       </c>
       <c r="D3" t="n">
-        <v>234.946458922264</v>
+        <v>43.86223714470339</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>43.86223714470339</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198758</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="T3" t="n">
-        <v>409.399488203391</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="U3" t="n">
-        <v>409.399488203391</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="V3" t="n">
-        <v>409.399488203391</v>
+        <v>382.2164318224395</v>
       </c>
       <c r="W3" t="n">
-        <v>409.399488203391</v>
+        <v>192.7966468059547</v>
       </c>
       <c r="X3" t="n">
-        <v>409.399488203391</v>
+        <v>192.7966468059547</v>
       </c>
       <c r="Y3" t="n">
-        <v>409.399488203391</v>
+        <v>192.7966468059547</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>288.868984138758</v>
+        <v>183.9382299012125</v>
       </c>
       <c r="C4" t="n">
-        <v>288.868984138758</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>288.868984138758</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>288.868984138758</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>141.9790366408477</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>141.9790366408477</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>141.9790366408477</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>447.3950989318186</v>
+        <v>285.9838492295953</v>
       </c>
       <c r="N4" t="n">
-        <v>633.0454302264752</v>
+        <v>471.6341805242521</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608017</v>
+        <v>634.3723839608023</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846272</v>
+        <v>615.938338957512</v>
       </c>
       <c r="S4" t="n">
-        <v>557.3057129681424</v>
+        <v>562.7777999341822</v>
       </c>
       <c r="T4" t="n">
-        <v>557.3057129681424</v>
+        <v>373.3580149176973</v>
       </c>
       <c r="U4" t="n">
-        <v>367.8859279516577</v>
+        <v>373.3580149176973</v>
       </c>
       <c r="V4" t="n">
-        <v>367.8859279516577</v>
+        <v>373.3580149176973</v>
       </c>
       <c r="W4" t="n">
-        <v>367.8859279516577</v>
+        <v>373.3580149176973</v>
       </c>
       <c r="X4" t="n">
-        <v>367.8859279516577</v>
+        <v>183.9382299012125</v>
       </c>
       <c r="Y4" t="n">
-        <v>288.868984138758</v>
+        <v>183.9382299012125</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1263.562852798992</v>
+        <v>125.2789685085351</v>
       </c>
       <c r="C5" t="n">
-        <v>1263.562852798992</v>
+        <v>125.2789685085351</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.562852798992</v>
+        <v>125.2789685085351</v>
       </c>
       <c r="E5" t="n">
-        <v>1263.562852798992</v>
+        <v>125.2789685085351</v>
       </c>
       <c r="F5" t="n">
-        <v>852.5769480093849</v>
+        <v>118.3334677593316</v>
       </c>
       <c r="G5" t="n">
-        <v>436.2923409357884</v>
+        <v>106.0892647261392</v>
       </c>
       <c r="H5" t="n">
-        <v>126.2947385020154</v>
+        <v>37.5661601374292</v>
       </c>
       <c r="I5" t="n">
-        <v>37.56616013742907</v>
+        <v>37.5661601374292</v>
       </c>
       <c r="J5" t="n">
-        <v>125.6123058620869</v>
+        <v>125.6123058620873</v>
       </c>
       <c r="K5" t="n">
-        <v>308.3091729405702</v>
+        <v>308.3091729405714</v>
       </c>
       <c r="L5" t="n">
-        <v>571.8625535714447</v>
+        <v>571.8625535714466</v>
       </c>
       <c r="M5" t="n">
-        <v>896.7859082672676</v>
+        <v>896.7859082672703</v>
       </c>
       <c r="N5" t="n">
-        <v>1231.58067091781</v>
+        <v>1231.580670917814</v>
       </c>
       <c r="O5" t="n">
-        <v>1534.382610379518</v>
+        <v>1534.382610379522</v>
       </c>
       <c r="P5" t="n">
-        <v>1758.316059280667</v>
+        <v>1758.316059280673</v>
       </c>
       <c r="Q5" t="n">
-        <v>1878.308006871454</v>
+        <v>1878.30800687146</v>
       </c>
       <c r="R5" t="n">
-        <v>1878.308006871454</v>
+        <v>1878.30800687146</v>
       </c>
       <c r="S5" t="n">
-        <v>1878.308006871454</v>
+        <v>1740.395312616118</v>
       </c>
       <c r="T5" t="n">
-        <v>1667.024042344535</v>
+        <v>1529.1113480892</v>
       </c>
       <c r="U5" t="n">
-        <v>1413.396593064884</v>
+        <v>1275.483898809548</v>
       </c>
       <c r="V5" t="n">
-        <v>1413.396593064884</v>
+        <v>1275.483898809548</v>
       </c>
       <c r="W5" t="n">
-        <v>1413.396593064884</v>
+        <v>1275.483898809548</v>
       </c>
       <c r="X5" t="n">
-        <v>1263.562852798992</v>
+        <v>902.0181405484686</v>
       </c>
       <c r="Y5" t="n">
-        <v>1263.562852798992</v>
+        <v>511.8788085726569</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>594.7308898489915</v>
+        <v>451.386970620636</v>
       </c>
       <c r="C6" t="n">
-        <v>420.2778605678645</v>
+        <v>451.386970620636</v>
       </c>
       <c r="D6" t="n">
-        <v>271.3434509066132</v>
+        <v>302.4525609593848</v>
       </c>
       <c r="E6" t="n">
-        <v>271.3434509066132</v>
+        <v>302.4525609593848</v>
       </c>
       <c r="F6" t="n">
-        <v>271.3434509066132</v>
+        <v>302.4525609593848</v>
       </c>
       <c r="G6" t="n">
-        <v>134.331789610571</v>
+        <v>165.4408996633425</v>
       </c>
       <c r="H6" t="n">
-        <v>37.56616013742907</v>
+        <v>68.67527019020065</v>
       </c>
       <c r="I6" t="n">
-        <v>37.56616013742907</v>
+        <v>37.5661601374292</v>
       </c>
       <c r="J6" t="n">
-        <v>71.18799439755995</v>
+        <v>71.18799439756032</v>
       </c>
       <c r="K6" t="n">
-        <v>206.8078890800185</v>
+        <v>206.8078890800192</v>
       </c>
       <c r="L6" t="n">
-        <v>671.6891207807032</v>
+        <v>671.6891207807056</v>
       </c>
       <c r="M6" t="n">
-        <v>957.9050266508441</v>
+        <v>957.905026650847</v>
       </c>
       <c r="N6" t="n">
-        <v>1266.104860803107</v>
+        <v>1266.10486080311</v>
       </c>
       <c r="O6" t="n">
-        <v>1525.82770212877</v>
+        <v>1525.827702128774</v>
       </c>
       <c r="P6" t="n">
-        <v>1801.807222027791</v>
+        <v>1714.945113619505</v>
       </c>
       <c r="Q6" t="n">
-        <v>1878.308006871454</v>
+        <v>1878.30800687146</v>
       </c>
       <c r="R6" t="n">
-        <v>1878.308006871454</v>
+        <v>1878.30800687146</v>
       </c>
       <c r="S6" t="n">
-        <v>1736.823381856703</v>
+        <v>1736.823381856709</v>
       </c>
       <c r="T6" t="n">
-        <v>1541.56622505544</v>
+        <v>1541.566225055447</v>
       </c>
       <c r="U6" t="n">
-        <v>1313.455709694549</v>
+        <v>1524.603571571135</v>
       </c>
       <c r="V6" t="n">
-        <v>1078.303601462807</v>
+        <v>1289.451463339392</v>
       </c>
       <c r="W6" t="n">
-        <v>824.0662447346051</v>
+        <v>1035.214106611191</v>
       </c>
       <c r="X6" t="n">
-        <v>824.0662447346051</v>
+        <v>827.362606405658</v>
       </c>
       <c r="Y6" t="n">
-        <v>762.9462268690595</v>
+        <v>619.6023076407041</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>466.3798533521604</v>
+        <v>356.6189824776718</v>
       </c>
       <c r="C7" t="n">
-        <v>466.3798533521604</v>
+        <v>187.6827995497649</v>
       </c>
       <c r="D7" t="n">
-        <v>466.3798533521604</v>
+        <v>37.5661601374292</v>
       </c>
       <c r="E7" t="n">
-        <v>466.3798533521604</v>
+        <v>37.5661601374292</v>
       </c>
       <c r="F7" t="n">
-        <v>319.48990585425</v>
+        <v>37.5661601374292</v>
       </c>
       <c r="G7" t="n">
-        <v>151.2433373652804</v>
+        <v>37.5661601374292</v>
       </c>
       <c r="H7" t="n">
-        <v>151.2433373652804</v>
+        <v>37.5661601374292</v>
       </c>
       <c r="I7" t="n">
-        <v>37.56616013742907</v>
+        <v>37.5661601374292</v>
       </c>
       <c r="J7" t="n">
-        <v>45.01194249256542</v>
+        <v>45.01194249256571</v>
       </c>
       <c r="K7" t="n">
-        <v>187.0844868696025</v>
+        <v>187.0844868696031</v>
       </c>
       <c r="L7" t="n">
-        <v>424.4148644101284</v>
+        <v>424.4148644101293</v>
       </c>
       <c r="M7" t="n">
-        <v>685.035594446749</v>
+        <v>685.0355944467503</v>
       </c>
       <c r="N7" t="n">
-        <v>944.8939624609258</v>
+        <v>944.8939624609275</v>
       </c>
       <c r="O7" t="n">
-        <v>1168.898929103173</v>
+        <v>1168.898929103176</v>
       </c>
       <c r="P7" t="n">
-        <v>1337.05319389053</v>
+        <v>1337.053193890532</v>
       </c>
       <c r="Q7" t="n">
-        <v>1370.039410552809</v>
+        <v>1370.039410552812</v>
       </c>
       <c r="R7" t="n">
-        <v>1255.760791512124</v>
+        <v>1370.039410552812</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.599143859942</v>
+        <v>1168.87776290063</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.599143859942</v>
+        <v>1168.87776290063</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.599143859942</v>
+        <v>1168.87776290063</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.599143859942</v>
+        <v>914.1932746947431</v>
       </c>
       <c r="W7" t="n">
-        <v>765.1819738229817</v>
+        <v>624.7761046577825</v>
       </c>
       <c r="X7" t="n">
-        <v>648.0283181824001</v>
+        <v>538.2674473079115</v>
       </c>
       <c r="Y7" t="n">
-        <v>648.0283181824001</v>
+        <v>538.2674473079115</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1330.099343395678</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.099343395678</v>
+        <v>1399.987221986177</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>1041.721523379426</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>655.933270781182</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>648.9877700319786</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>233.2830197562674</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2480.304273696691</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2480.304273696691</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2480.304273696691</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2480.304273696691</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>2480.304273696691</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="X8" t="n">
-        <v>2106.838515435611</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="Y8" t="n">
-        <v>1716.6991834598</v>
+        <v>1768.949738926588</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1352.031492328576</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1739.316620925521</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2071.387056101683</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2318.56978993398</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>732.3487252516918</v>
+        <v>475.205037342667</v>
       </c>
       <c r="C10" t="n">
-        <v>563.4125423237849</v>
+        <v>475.205037342667</v>
       </c>
       <c r="D10" t="n">
-        <v>413.2959029114492</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E10" t="n">
-        <v>265.382809329056</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F10" t="n">
-        <v>265.382809329056</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>97.39634463733464</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1586.371647458003</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1389.742899617864</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1166.764418812599</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.765895288652</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="V10" t="n">
-        <v>1021.765895288652</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="W10" t="n">
-        <v>732.3487252516918</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="X10" t="n">
-        <v>732.3487252516918</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="Y10" t="n">
-        <v>732.3487252516918</v>
+        <v>656.8535021729067</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.452899754456</v>
+        <v>1872.090169197693</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.490382814044</v>
+        <v>1503.127652257282</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207294</v>
+        <v>1144.861953650531</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>759.0737010522869</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194421</v>
+        <v>759.0737010522869</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605876</v>
+        <v>344.4579364934324</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656962</v>
+        <v>695.1615405656967</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087832</v>
+        <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484044</v>
+        <v>2455.600890484043</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535298</v>
+        <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479997</v>
+        <v>3493.127967479995</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464064</v>
+        <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796039</v>
+        <v>3876.883295796035</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345381</v>
+        <v>3776.999350345377</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926745</v>
+        <v>3573.020743926741</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048274</v>
+        <v>3319.526802048269</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704703</v>
+        <v>2988.463914704699</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434588</v>
+        <v>2635.695259434585</v>
       </c>
       <c r="X11" t="n">
-        <v>2333.452899754456</v>
+        <v>2262.229501173505</v>
       </c>
       <c r="Y11" t="n">
-        <v>2333.452899754456</v>
+        <v>1872.090169197693</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5106,34 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
         <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870415</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
-        <v>470.776996404666</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="L12" t="n">
-        <v>488.5008422034049</v>
+        <v>612.5381326449926</v>
       </c>
       <c r="M12" t="n">
-        <v>996.4574081599335</v>
+        <v>1120.494698601521</v>
       </c>
       <c r="N12" t="n">
-        <v>1532.266717861144</v>
+        <v>1656.30400830273</v>
       </c>
       <c r="O12" t="n">
-        <v>2000.207762193667</v>
+        <v>2000.207762193668</v>
       </c>
       <c r="P12" t="n">
         <v>2356.438638438442</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>688.8994353400898</v>
+        <v>184.1123407281358</v>
       </c>
       <c r="C13" t="n">
-        <v>519.9632524121829</v>
+        <v>184.1123407281358</v>
       </c>
       <c r="D13" t="n">
-        <v>369.8466129998471</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="E13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="F13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="G13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J13" t="n">
-        <v>136.855221875865</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648147</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344815</v>
+        <v>710.5788654344808</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818666</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010724</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742809</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742809</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>2083.997544033873</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1863.106211468313</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1574.014518417764</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1319.330030211877</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>1319.330030211877</v>
+        <v>814.5429355999229</v>
       </c>
       <c r="X13" t="n">
-        <v>1091.34047931386</v>
+        <v>586.5533847019055</v>
       </c>
       <c r="Y13" t="n">
-        <v>870.5479001703294</v>
+        <v>365.7608055583755</v>
       </c>
     </row>
     <row r="14">
@@ -5255,13 +5255,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5303,22 +5303,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>532.5350811160199</v>
+        <v>513.8536007400704</v>
       </c>
       <c r="C16" t="n">
-        <v>532.5350811160199</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="D16" t="n">
-        <v>382.4184417036842</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1996.142560886457</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1707.067334230655</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1452.382846024768</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1162.965675987808</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>934.9761250897907</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>714.1835459462596</v>
+        <v>695.5020655703102</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5598,19 +5598,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998279</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832661</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855602</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="20">
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,16 +5777,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852888</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>555.8158034133953</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133953</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133953</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310022</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998279</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1475.663568322143</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1186.246398285183</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>958.2568473871652</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y22" t="n">
-        <v>737.464268243635</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="23">
@@ -5984,31 +5984,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327647</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048579</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>198.0274703142538</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797742</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6309,13 +6309,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257311</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133953</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310022</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,19 +6540,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327637</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048568</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925211</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>296.788222910128</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>296.788222910128</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>129.5921236250079</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630034</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6777,25 +6777,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>2149.810879820877</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O33" t="n">
-        <v>2149.810879820877</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="F34" t="n">
         <v>261.0127623330919</v>
@@ -6859,7 +6859,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797745</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6926,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6938,25 +6938,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7017,19 +7017,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.116874200839</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536378</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C37" t="n">
-        <v>705.932442825731</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133952</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310021</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1759.983708831312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,22 +7251,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.886107649656</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>640.1060525954244</v>
+        <v>695.5020655703107</v>
       </c>
       <c r="C40" t="n">
-        <v>640.1060525954244</v>
+        <v>526.5658826424038</v>
       </c>
       <c r="D40" t="n">
-        <v>489.9894131830887</v>
+        <v>376.4492432300681</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2323.31499734292</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2103.713532365861</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1814.638305710059</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1559.953817504173</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1270.536647467212</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1042.547096569194</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>821.7545174256641</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L42" t="n">
-        <v>904.4616873845483</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536377</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257308</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133951</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310019</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868272</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662385</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727407</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,19 +8137,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>153.3759016847017</v>
+        <v>82.97369176944363</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.76852197496456</v>
+        <v>15.76852197496424</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>238.5868743539831</v>
+        <v>238.5868743539841</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>87.73950344271827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>87.73950344271981</v>
       </c>
       <c r="R6" t="n">
-        <v>40.00791436438836</v>
+        <v>40.00791436438818</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q9" t="n">
-        <v>129.751134705686</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>49.87305750948375</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>70.51116459513766</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>43.1065449541194</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927372</v>
+        <v>90.25352389927376</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905234</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>133.4029185301897</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823186</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>18.49466557218984</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393139</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>176.3785887617883</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393139</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>41.54258064659086</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0033420516646</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>62.35543909864971</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>110.0033420516647</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>104.8770068749582</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.35543909864937</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>4.506629716718464</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>12.04875628922517</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>58.61468062667838</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26029,13 +26029,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1001804.303035694</v>
+        <v>1001804.303035693</v>
       </c>
     </row>
     <row r="6">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457131</v>
       </c>
       <c r="C2" t="n">
+        <v>328416.7079457131</v>
+      </c>
+      <c r="D2" t="n">
         <v>328416.7079457134</v>
-      </c>
-      <c r="D2" t="n">
-        <v>328416.7079457135</v>
       </c>
       <c r="E2" t="n">
         <v>293035.6977097585</v>
@@ -26329,10 +26329,10 @@
         <v>322858.6398760025</v>
       </c>
       <c r="H2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="I2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="J2" t="n">
         <v>322858.6398760024</v>
@@ -26341,16 +26341,16 @@
         <v>322858.6398760023</v>
       </c>
       <c r="L2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="M2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="N2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760022</v>
       </c>
       <c r="O2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="P2" t="n">
         <v>322858.6398760024</v>
@@ -26366,16 +26366,16 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>312214.8578912893</v>
+        <v>312214.8578912908</v>
       </c>
       <c r="D3" t="n">
-        <v>175413.4991972655</v>
+        <v>175413.4991972639</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545781</v>
+        <v>313577.1573545772</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704281</v>
+        <v>189308.2687704292</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.94472854464</v>
       </c>
       <c r="K3" t="n">
-        <v>72591.00846030172</v>
+        <v>72591.00846030204</v>
       </c>
       <c r="L3" t="n">
-        <v>43280.54279925513</v>
+        <v>43280.54279925473</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.403712731</v>
+        <v>81897.40371273075</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202344</v>
+        <v>49839.57413202369</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>194111.737140347</v>
+        <v>194111.7371403465</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.2306979382</v>
+        <v>145155.2306979383</v>
       </c>
       <c r="E4" t="n">
         <v>13501.3895521962</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184272</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184273</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184283</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184276</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184276</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>79427.52208638303</v>
+        <v>79427.52208638315</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738573</v>
+        <v>85137.48506738564</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-597396.8434174589</v>
+        <v>-597396.8434174591</v>
       </c>
       <c r="C6" t="n">
-        <v>-257337.4091723059</v>
+        <v>-257337.4091723073</v>
       </c>
       <c r="D6" t="n">
-        <v>-85089.79438933491</v>
+        <v>-85089.79438933343</v>
       </c>
       <c r="E6" t="n">
-        <v>-119180.3342644016</v>
+        <v>-119401.4655783753</v>
       </c>
       <c r="F6" t="n">
-        <v>18821.03316982441</v>
+        <v>18786.29524438771</v>
       </c>
       <c r="G6" t="n">
-        <v>208129.3019402526</v>
+        <v>208094.5640148169</v>
       </c>
       <c r="H6" t="n">
-        <v>208129.3019402526</v>
+        <v>208094.5640148168</v>
       </c>
       <c r="I6" t="n">
-        <v>208129.3019402527</v>
+        <v>208094.5640148169</v>
       </c>
       <c r="J6" t="n">
-        <v>159064.3572117079</v>
+        <v>159029.6192862723</v>
       </c>
       <c r="K6" t="n">
-        <v>135538.2934799507</v>
+        <v>135503.5555545148</v>
       </c>
       <c r="L6" t="n">
-        <v>164848.7591409973</v>
+        <v>164814.0212155621</v>
       </c>
       <c r="M6" t="n">
-        <v>126231.8982275215</v>
+        <v>126197.1603020862</v>
       </c>
       <c r="N6" t="n">
-        <v>158289.7278082291</v>
+        <v>158254.989882793</v>
       </c>
       <c r="O6" t="n">
-        <v>208129.3019402527</v>
+        <v>208094.5640148167</v>
       </c>
       <c r="P6" t="n">
-        <v>208129.3019402525</v>
+        <v>208094.5640148168</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>791.2679074282996</v>
+        <v>791.2679074283009</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>469.5770017178634</v>
+        <v>469.577001717865</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490099</v>
+        <v>969.2208239490088</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>242.797966515395</v>
+        <v>242.7979665153962</v>
       </c>
       <c r="D3" t="n">
-        <v>142.7969846892395</v>
+        <v>142.7969846892382</v>
       </c>
       <c r="E3" t="n">
-        <v>268.176345097412</v>
+        <v>268.1763450974111</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267227</v>
+        <v>165.7342631267236</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>282.0514145515435</v>
+        <v>282.051414551545</v>
       </c>
       <c r="D4" t="n">
-        <v>171.0078303821753</v>
+        <v>171.0078303821737</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489711</v>
+        <v>328.6359918489701</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506385</v>
+        <v>203.4874641506395</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515438</v>
+        <v>282.051414551545</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821753</v>
+        <v>171.0078303821737</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489711</v>
+        <v>328.6359918489701</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506385</v>
+        <v>203.4874641506395</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515435</v>
+        <v>282.051414551545</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821753</v>
+        <v>171.0078303821737</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489711</v>
+        <v>328.6359918489701</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506385</v>
+        <v>203.4874641506395</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>191.3244595904155</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27397,7 +27397,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.715381551093</v>
       </c>
       <c r="X2" t="n">
-        <v>321.253985617852</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>84.96932501931602</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>116.4976241237001</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.88401062568137</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27555,10 +27555,10 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>19.25466862917636</v>
+        <v>154.1513221623998</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378009</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713042</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271714</v>
       </c>
       <c r="Y4" t="n">
-        <v>140.3578789773242</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>239.0597528666122</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>87.84129258094028</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>136.5335673127885</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>221.3956978152365</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>30.79801895224382</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>209.0363832578136</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>145.1738780904142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5641028040799</v>
       </c>
       <c r="H7" t="n">
         <v>149.5409427785071</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>112.5404054555727</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>113.1358328502781</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.8489350595717</v>
+        <v>221.8489350595716</v>
       </c>
       <c r="U7" t="n">
         <v>286.241199726252</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>109.7275363048613</v>
+        <v>140.0660846126649</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>120.8026817060237</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>42.23751124236495</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>101.5634466664906</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>51.98384452924417</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-7.032208304403594e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31042,13 +31042,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31060,25 +31060,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31124,7 +31124,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,16 +31133,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31151,16 +31151,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31227,19 +31227,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.180976512274569</v>
+        <v>3.180976512274574</v>
       </c>
       <c r="H5" t="n">
-        <v>32.57717570633194</v>
+        <v>32.57717570633199</v>
       </c>
       <c r="I5" t="n">
-        <v>122.6345969894654</v>
+        <v>122.6345969894656</v>
       </c>
       <c r="J5" t="n">
-        <v>269.9814052586639</v>
+        <v>269.9814052586644</v>
       </c>
       <c r="K5" t="n">
-        <v>404.6321410232465</v>
+        <v>404.6321410232472</v>
       </c>
       <c r="L5" t="n">
-        <v>501.9819509607695</v>
+        <v>501.9819509607702</v>
       </c>
       <c r="M5" t="n">
-        <v>558.5516420109323</v>
+        <v>558.5516420109332</v>
       </c>
       <c r="N5" t="n">
-        <v>567.5895915264325</v>
+        <v>567.5895915264334</v>
       </c>
       <c r="O5" t="n">
-        <v>535.9587563325022</v>
+        <v>535.9587563325031</v>
       </c>
       <c r="P5" t="n">
-        <v>457.4283986857237</v>
+        <v>457.4283986857244</v>
       </c>
       <c r="Q5" t="n">
-        <v>343.5096773398906</v>
+        <v>343.5096773398911</v>
       </c>
       <c r="R5" t="n">
-        <v>199.8170158391676</v>
+        <v>199.8170158391679</v>
       </c>
       <c r="S5" t="n">
-        <v>72.48650227345681</v>
+        <v>72.48650227345692</v>
       </c>
       <c r="T5" t="n">
-        <v>13.92472468248193</v>
+        <v>13.92472468248195</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2544781209819655</v>
+        <v>0.2544781209819659</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.701972480128795</v>
+        <v>1.701972480128798</v>
       </c>
       <c r="H6" t="n">
-        <v>16.437471058086</v>
+        <v>16.43747105808603</v>
       </c>
       <c r="I6" t="n">
-        <v>58.59861389917126</v>
+        <v>58.59861389917135</v>
       </c>
       <c r="J6" t="n">
-        <v>160.7990754142736</v>
+        <v>160.7990754142739</v>
       </c>
       <c r="K6" t="n">
-        <v>274.8312315829029</v>
+        <v>274.8312315829033</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5445071437545</v>
+        <v>369.5445071437551</v>
       </c>
       <c r="M6" t="n">
-        <v>431.2410095484232</v>
+        <v>431.2410095484239</v>
       </c>
       <c r="N6" t="n">
-        <v>442.6546758734976</v>
+        <v>442.6546758734983</v>
       </c>
       <c r="O6" t="n">
-        <v>404.9425488138016</v>
+        <v>404.9425488138023</v>
       </c>
       <c r="P6" t="n">
-        <v>325.0020957888049</v>
+        <v>325.0020957888054</v>
       </c>
       <c r="Q6" t="n">
-        <v>217.2552941301249</v>
+        <v>217.2552941301252</v>
       </c>
       <c r="R6" t="n">
-        <v>105.6715895995756</v>
+        <v>105.6715895995758</v>
       </c>
       <c r="S6" t="n">
-        <v>31.61339233923441</v>
+        <v>31.61339233923445</v>
       </c>
       <c r="T6" t="n">
-        <v>6.860143461571765</v>
+        <v>6.860143461571776</v>
       </c>
       <c r="U6" t="n">
-        <v>0.111971873692684</v>
+        <v>0.1119718736926841</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.426876554378901</v>
+        <v>1.426876554378903</v>
       </c>
       <c r="H7" t="n">
-        <v>12.68622972893242</v>
+        <v>12.68622972893244</v>
       </c>
       <c r="I7" t="n">
-        <v>42.9100694716855</v>
+        <v>42.91006947168557</v>
       </c>
       <c r="J7" t="n">
-        <v>100.8801723945883</v>
+        <v>100.8801723945884</v>
       </c>
       <c r="K7" t="n">
-        <v>165.7771124087486</v>
+        <v>165.7771124087489</v>
       </c>
       <c r="L7" t="n">
-        <v>212.1376288210232</v>
+        <v>212.1376288210235</v>
       </c>
       <c r="M7" t="n">
-        <v>223.6693857014126</v>
+        <v>223.6693857014129</v>
       </c>
       <c r="N7" t="n">
-        <v>218.3510276350914</v>
+        <v>218.3510276350918</v>
       </c>
       <c r="O7" t="n">
-        <v>201.6825151589378</v>
+        <v>201.6825151589381</v>
       </c>
       <c r="P7" t="n">
-        <v>172.5742334496081</v>
+        <v>172.5742334496084</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.4814540216732</v>
+        <v>119.4814540216734</v>
       </c>
       <c r="R7" t="n">
-        <v>64.15755852689129</v>
+        <v>64.15755852689139</v>
       </c>
       <c r="S7" t="n">
-        <v>24.86656686131229</v>
+        <v>24.86656686131233</v>
       </c>
       <c r="T7" t="n">
-        <v>6.096654368709848</v>
+        <v>6.096654368709857</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07782963023884923</v>
+        <v>0.07782963023884935</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869146</v>
+        <v>4.833130601869143</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639241</v>
+        <v>49.49729877639237</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285605</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203918</v>
+        <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975129</v>
+        <v>614.7923367975125</v>
       </c>
       <c r="L11" t="n">
-        <v>762.704257454466</v>
+        <v>762.7042574544654</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954563</v>
+        <v>848.6554437954558</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180171</v>
+        <v>862.3875761180165</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956808</v>
+        <v>814.3281336956802</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620361</v>
+        <v>695.0102219620356</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825971</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.599140169663</v>
+        <v>303.5991401696628</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900933</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1570292096822</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495316</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858574</v>
+        <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837097</v>
+        <v>24.97486041837095</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469214</v>
+        <v>89.03390294469207</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193138</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598383</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>156.4572543240549</v>
+        <v>561.4806834747747</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821483</v>
+        <v>655.2214742821477</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340509</v>
+        <v>672.5632370340503</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924477</v>
+        <v>489.9737736272093</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383448</v>
+        <v>493.8035753383444</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047542</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605175</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627655</v>
+        <v>48.03293999627652</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868434</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.1701284769643798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092169</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798457</v>
+        <v>65.19695102798453</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329028</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100543</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770065</v>
+        <v>339.8400926770062</v>
       </c>
       <c r="N13" t="n">
-        <v>331.759454853103</v>
+        <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.433553380624</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493066</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194576</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811714</v>
+        <v>97.48008457811707</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493541</v>
+        <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377488</v>
+        <v>9.263170188377481</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473724</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,31 +32075,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>484.1423712692491</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32318,22 +32318,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,13 +32792,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>272.7569329364655</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33029,16 +33029,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33260,7 +33260,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33269,13 +33269,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>232.1537035940586</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33497,10 +33497,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,16 +33509,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>504.288299623204</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33737,22 +33737,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>397.6543049213403</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33971,13 +33971,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>614.59004755871</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>467.1465236515248</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,31 +34445,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>154.5219885631796</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>169.4872848053133</v>
+        <v>99.08507489005518</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.93550073197764</v>
+        <v>88.9355007319781</v>
       </c>
       <c r="K5" t="n">
-        <v>184.542289978266</v>
+        <v>184.5422899782666</v>
       </c>
       <c r="L5" t="n">
-        <v>266.2155359907823</v>
+        <v>266.215535990783</v>
       </c>
       <c r="M5" t="n">
-        <v>328.2054087836595</v>
+        <v>328.2054087836605</v>
       </c>
       <c r="N5" t="n">
-        <v>338.1765279298416</v>
+        <v>338.1765279298425</v>
       </c>
       <c r="O5" t="n">
-        <v>305.8605449108154</v>
+        <v>305.8605449108163</v>
       </c>
       <c r="P5" t="n">
-        <v>226.1954029304542</v>
+        <v>226.1954029304549</v>
       </c>
       <c r="Q5" t="n">
-        <v>121.2039874654411</v>
+        <v>121.2039874654417</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>33.96144874760694</v>
+        <v>33.96144874760719</v>
       </c>
       <c r="K6" t="n">
-        <v>136.989792608544</v>
+        <v>136.9897926085443</v>
       </c>
       <c r="L6" t="n">
-        <v>469.5770017178634</v>
+        <v>469.577001717865</v>
       </c>
       <c r="M6" t="n">
-        <v>289.1069756264049</v>
+        <v>289.1069756264056</v>
       </c>
       <c r="N6" t="n">
-        <v>311.3129637901643</v>
+        <v>311.312963790165</v>
       </c>
       <c r="O6" t="n">
-        <v>262.3463043693571</v>
+        <v>262.3463043693578</v>
       </c>
       <c r="P6" t="n">
-        <v>278.7671918171929</v>
+        <v>191.0276883744751</v>
       </c>
       <c r="Q6" t="n">
-        <v>77.27352004410335</v>
+        <v>165.0130234868235</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.520992277915511</v>
+        <v>7.520992277915667</v>
       </c>
       <c r="K7" t="n">
-        <v>143.5076205828658</v>
+        <v>143.507620582866</v>
       </c>
       <c r="L7" t="n">
-        <v>239.7276540813393</v>
+        <v>239.7276540813396</v>
       </c>
       <c r="M7" t="n">
-        <v>263.2532626632532</v>
+        <v>263.2532626632535</v>
       </c>
       <c r="N7" t="n">
-        <v>262.48320001432</v>
+        <v>262.4832000143203</v>
       </c>
       <c r="O7" t="n">
-        <v>226.2676430729775</v>
+        <v>226.2676430729778</v>
       </c>
       <c r="P7" t="n">
-        <v>169.8527927145016</v>
+        <v>169.8527927145018</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.31941076997886</v>
+        <v>33.31941076997904</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q9" t="n">
-        <v>246.2318570365406</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937055</v>
+        <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525324</v>
+        <v>394.7024857525319</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844788</v>
+        <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681836</v>
+        <v>618.3092105681831</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214263</v>
+        <v>632.9745125214256</v>
       </c>
       <c r="O11" t="n">
-        <v>584.229922273994</v>
+        <v>584.2299222739935</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067666</v>
+        <v>463.7772262067661</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081476</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553091</v>
+        <v>88.01360235553068</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526471</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854793</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>17.90287454418073</v>
+        <v>422.9263036949005</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601299</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507176</v>
+        <v>541.221524950717</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480032</v>
+        <v>347.3775291827649</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240145</v>
+        <v>359.8291679240141</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187327</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655353</v>
+        <v>14.87641069655342</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186284</v>
+        <v>59.91672319186273</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070199</v>
+        <v>229.6099018070197</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703704</v>
+        <v>349.9089300703702</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388471</v>
+        <v>379.4239696388468</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323316</v>
+        <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946637</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142001</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776323</v>
+        <v>95.37638356776309</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>350.1679638549188</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36048,7 +36048,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010432</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>134.2025531565913</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36908,7 +36908,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>90.01966967204032</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37145,10 +37145,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,16 +37157,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>370.3138922088737</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37385,22 +37385,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>263.67989750701</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37619,13 +37619,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>471.9938031142656</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>328.5921438716506</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,31 +38093,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>20.54758114884936</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
